--- a/reports/Relatorio_Risco_Quant_20260115.xlsx
+++ b/reports/Relatorio_Risco_Quant_20260115.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Análise Quantitativa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard Risco" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,11 +28,7 @@
     <font>
       <b val="1"/>
       <color rgb="00003366"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <color rgb="00555555"/>
+      <sz val="16"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,11 +38,13 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <b val="1"/>
+      <color rgb="00C00000"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FF0000"/>
+      <color rgb="00003366"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -63,7 +61,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -77,36 +75,61 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -181,6 +204,149 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Risco (Volatilidade) x Retorno Ajustado (Sharpe)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:srgbClr val="003366"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Dashboard Risco'!$D$6:$D$14</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Dashboard Risco'!$E$6:$E$14</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Volatilidade Anualizada</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Índice de Sharpe</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,34 +646,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RELATÓRIO DE RISCO E ESTATÍSTICA DESCRITIVA</t>
+          <t>MONITOR DE RISCO QUANTITATIVO (SQL BACKEND)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Métricas calculadas via Python (Scipy/Pandas)</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gerado em: 15/01/2026 22:16</t>
         </is>
       </c>
     </row>
     <row r="4"/>
-    <row r="5"/>
+    <row r="5">
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+    </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Ativo</t>
@@ -518,7 +695,7 @@
           <t>Setor</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Volatilidade (aa)</t>
         </is>
@@ -528,287 +705,449 @@
           <t>Sharpe Ratio</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>VaR 95% (1d)</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Skewness</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Kurtosis</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Max Drawdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>BPAC11.SA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.2858926617026338</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.5097425133978846</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>-0.02622762841116693</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.4944741326992208</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.991866181292702</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>-0.2873483851101504</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>ITUB4.SA</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.1955739648762981</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.8528558625577317</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>-0.01883258370640331</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.1303470667528334</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>4.454558718098004</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>-0.1890401208788415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>LREN3.SA</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Varejo</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.4201543925849949</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>-0.06326603174103719</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.04205524050733865</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>-0.4590140021664609</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.77201271222346</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>-0.371667912317878</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>MGLU3.SA</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Varejo</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.6264152628940388</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>-0.5112273476151182</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>-0.06545053871116087</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.2433176890043735</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>3.536007513297601</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>-0.738288302227218</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>PETR4.SA</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.2395352825129553</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>-0.04196342670732931</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-0.02209767456112924</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>-0.6845450169748994</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>7.953178570073713</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>-0.2105585615399471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>TAEE11.SA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Defensiva</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.1564293142087801</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.1109489204810871</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>-0.01472378868135609</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.2141233051030109</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>5.831496996825615</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>-0.1188888549804685</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>VALE3.SA</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.2293840952199555</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.3576701065686228</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>-0.02194477281789341</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.4075925221334866</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5.239386228560235</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>-0.2009725541832614</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>WEGE3.SA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Defensiva</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.2827136762076082</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.488551525754746</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>-0.02228702634581572</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>-0.6042406019288866</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>11.38470719292502</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>-0.3819136683765347</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>^BVSP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Benchmark</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1414665708854556</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1846291849230518</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.01328604879194245</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1534162318147283</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.8306205842726</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.1369626630941295</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>GLOSSÁRIO DE MÉTRICAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>Retorno excedente por unidade de risco. Quanto maior, melhor a eficiência do ativo.</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="11" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>VaR 95% (Value at Risk)</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>Perda máxima esperada em 1 dia (95% confiança). Ex: -2% = chance de cair mais que isso é 5%.</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="11" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Volatilidade</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>Mede a intensidade das oscilações do preço (Risco total).</t>
+        </is>
+      </c>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="11" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Skewness (Assimetria)</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Kurtosis (Caudas)</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Mede a inclinação da curva. Negativo = maior frequência de quedas abruptas.</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="11" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>Kurtosis (Curtose)</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>Detector de Caudas Gordas. &gt; 3 indica alta probabilidade de eventos extremos.</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="11" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>Max Drawdown</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>^BVSP</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Benchmark</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>VALE3.SA</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>-0.55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>PETR4.SA</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>ITUB4.SA</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Financeiro</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>BPAC11.SA</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Financeiro</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>MGLU3.SA</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Varejo</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>LREN3.SA</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Varejo</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>-0.55</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>WEGE3.SA</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Defensiva</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>TAEE11.SA</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Defensiva</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>Notas Técnicas:</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>* Kurtosis &gt; 3.0 indica 'Caudas Gordas' (maior probabilidade de eventos extremos).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>* Skewness Negativa indica que a cauda esquerda (perdas) é mais longa que a direita.</t>
-        </is>
-      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>A pior queda percentual registrada do topo histórico até o fundo.</t>
+        </is>
+      </c>
+      <c r="D24" s="10" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="11" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C19:I19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F6:F14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="00FF6384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="0036A2EB"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>